--- a/biology/Zoologie/Gracixalus/Gracixalus.xlsx
+++ b/biology/Zoologie/Gracixalus/Gracixalus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gracixalus est un genre d'amphibiens de la famille des Rhacophoridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gracixalus est un genre d'amphibiens de la famille des Rhacophoridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les onze espèces de ce genre se rencontrent au Viêt Nam, au Laos, en Thaïlande et en Chine, dans le Yunnan et le Guangxi[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les onze espèces de ce genre se rencontrent au Viêt Nam, au Laos, en Thaïlande et en Chine, dans le Yunnan et le Guangxi.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (6 avril 2015)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (6 avril 2015) :
 Gracixalus carinensis (Boulenger, 1893)
 Gracixalus gracilipes (Bourret, 1937)
 Gracixalus jinxiuensis (Hu, 1978)
@@ -583,7 +599,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Delorme, Dubois, Grosjean &amp; Ohler, 2005 : Une nouvelle classification générique et subgénérique de la tribu des Philautini (Amphibia, Anura, Ranidae, Rhacophorinae). Bulletin mensuel de la Société linnéenne de Lyon, vol. 74, no 5, p. 165-171 (texte intégral)</t>
         </is>
